--- a/target/classes/testData/ecommerce.xlsx
+++ b/target/classes/testData/ecommerce.xlsx
@@ -10,16 +10,16 @@
     <sheet name="newUsers" sheetId="3" r:id="rId1"/>
     <sheet name="userLogin" sheetId="4" r:id="rId2"/>
     <sheet name="negativeAccountCreate" sheetId="6" r:id="rId3"/>
-    <sheet name="contactUs" sheetId="7" r:id="rId4"/>
-    <sheet name="negativeLogin" sheetId="8" r:id="rId5"/>
-    <sheet name="registerErrorMessages" sheetId="9" r:id="rId6"/>
+    <sheet name="negativeLogin" sheetId="8" r:id="rId4"/>
+    <sheet name="registerErrorMessages" sheetId="9" r:id="rId5"/>
+    <sheet name="contactUs" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>title</t>
   </si>
@@ -1095,17 +1095,65 @@
             The Zip/Postal code you've entered is invalid. It must follow this format: 00000-
             This country requires you to choose a State.</t>
   </si>
+  <si>
+    <t>subjectHeading</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>orderReference</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>successAlertMessage</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>henry123@abc.com</t>
+  </si>
+  <si>
+    <t>KDF3454GH</t>
+  </si>
+  <si>
+    <t>Hello, my order is missing abc parts</t>
+  </si>
+  <si>
+    <t>Your message has been successfully sent to our team.</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>henry124@abc.com</t>
+  </si>
+  <si>
+    <t>LPDJ4689KL</t>
+  </si>
+  <si>
+    <t>Hello, this is not what i ordered</t>
+  </si>
+  <si>
+    <t>Hello, I would like to make another order of the same product</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="d\-mm\-yyyy"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1132,9 +1180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,21 +1195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1170,15 +1202,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1200,8 +1224,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1265,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,33 +1293,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1269,7 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,19 +1329,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,25 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,13 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,37 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,30 +1508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1501,32 +1525,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,129 +1558,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1694,16 +1742,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1714,11 +1762,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2053,8 +2101,8 @@
   <sheetPr/>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E28"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2154,7 +2202,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
@@ -2426,7 +2474,7 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E6" t="s">
@@ -2698,7 +2746,7 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E10" t="s">
@@ -2970,7 +3018,7 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E14" t="s">
@@ -3242,7 +3290,7 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E18" t="s">
@@ -3514,7 +3562,7 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E22" t="s">
@@ -3786,7 +3834,7 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E26" t="s">
@@ -4058,7 +4106,7 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E30" t="s">
@@ -4330,7 +4378,7 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E34" t="s">
@@ -4602,7 +4650,7 @@
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E38" t="s">
@@ -4874,7 +4922,7 @@
       <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E42" t="s">
@@ -5146,7 +5194,7 @@
       <c r="C46" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E46" t="s">
@@ -5418,7 +5466,7 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E50" t="s">
@@ -5667,7 +5715,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -5675,7 +5723,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5683,7 +5731,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B4" t="s">
@@ -5702,22 +5750,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C5"/>
@@ -5745,7 +5777,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B2" t="s">
@@ -5775,7 +5807,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C5" t="s">
@@ -5792,13 +5824,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="296" zoomScaleNormal="296" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="296" zoomScaleNormal="296" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -5812,7 +5844,7 @@
       </c>
     </row>
     <row r="2" ht="126" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5820,4 +5852,110 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="22.5625" customWidth="1"/>
+    <col min="3" max="3" width="13.9375" customWidth="1"/>
+    <col min="4" max="4" width="53.8125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="henry123@abc.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="henry124@abc.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="kevinlee1234@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>